--- a/CSC116(051)_CourseSchedule.xlsx
+++ b/CSC116(051)_CourseSchedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -34,34 +34,34 @@
     <t>Introduction to Java</t>
   </si>
   <si>
-    <t>zyBook chapaters 1.1 - 1.4, 1.6, 1.7, E115 Textbook</t>
+    <t>zyBook chapters: 1.1 - 1.4, 1.6, 1.7, E115 Textbook</t>
   </si>
   <si>
     <t>Primitive Data Type &amp; Variables &amp; Expressions</t>
   </si>
   <si>
-    <t>zyBook chapaters 1.5, 2.1 - 2.8, 2.12, 2.14, 2.23, 2.24, Scanner API, Oracle - Java Tutorial: Scanning, Oracle - Java Tutorial: Primitive Data Types, Java API</t>
+    <t>zyBook chapters: 1.5, 2.1 - 2.8, 2.12, 2.14, 2.23, 2.24, Scanner API, Oracle - Java Tutorial: Scanning, Oracle - Java Tutorial: Primitive Data Types, Java API</t>
   </si>
   <si>
     <t>Primitive Data Type &amp; System Testing</t>
   </si>
   <si>
-    <t>zyBook chapaters 2.9, 2.10, 2.11, 2.13, 2.15, 2.17, 2.20, 2.21, CSC Software Testing Materials (Software Testing Introduction), CSC Software Testing Materials (System Testing), Pair Programming Description</t>
+    <t>zyBook chapters: 2.9, 2.10, 2.11, 2.13, 2.15, 2.17, 2.20, 2.21, CSC Software Testing Materials (Software Testing Introduction), CSC Software Testing Materials (System Testing), Pair Programming Description</t>
   </si>
   <si>
     <t>Conditionals</t>
   </si>
   <si>
-    <t>zyBook chapaters 2.18, 2.19, 2.22, 2.25, 3.1, 3.2, 3.3, 3.4, 3.5, 3.6, 3.7, 3.8, 3.9, 3.10, 3.11, Oracle - Java Tutorial: The if-then and if-then-else Statements</t>
-  </si>
-  <si>
-    <t>zyBook chapaters 3.12 - 3.18, Java String API, Java Object API: equals method, CSC Software Testing Materials (System Testing: Conditionals), Oracle - Java Tutorial: Equality, Relational, and Conditional Operators, Oracle - Java Tutorial: Strings, Oracle - Java Tutorial: Characters, Java Character API, Oracle - Java Tutorial: Scanning, Oracle - Java Tutorial: The switch Statement</t>
+    <t>zyBook chapters: 2.18, 2.19, 2.22, 2.25, 3.1, 3.2, 3.3, 3.4, 3.5, 3.6, 3.7, 3.8, 3.9, 3.10, 3.11, 3.12, Oracle - Java Tutorial: The if-then and if-then-else Statements</t>
+  </si>
+  <si>
+    <t>zyBook chapters: 3.12 - 3.19, Java String API, Java Object API: equals method, CSC Software Testing Materials (System Testing: Conditionals), Oracle - Java Tutorial: Equality, Relational, and Conditional Operators, Oracle - Java Tutorial: Strings, Oracle - Java Tutorial: Characters, Java Character API, Oracle - Java Tutorial: Scanning, Oracle - Java Tutorial: The switch Statement</t>
   </si>
   <si>
     <t>Methods</t>
   </si>
   <si>
-    <t>zyBook chapaters 4.1 - 4.10, Oracle - Java Tutorial: Passing Information to a Method or a Constructor</t>
+    <t>zyBook chapters: 4.1 - 4.10, Oracle - Java Tutorial: Passing Information to a Method or a Constructor</t>
   </si>
   <si>
     <t>Unit and Integration Testing</t>
@@ -79,31 +79,31 @@
     <t>While and Do-While Loops</t>
   </si>
   <si>
-    <t>zyBook chapaters 5.1 - 5.4, 5.13, Java Scanner API, Oracle - Java Tutorial: Enum Types</t>
+    <t>zyBook chapters: 5.1 - 5.4, 5.13, Java Scanner API, Oracle - Java Tutorial: Enum Types</t>
   </si>
   <si>
     <t>For Loops &amp; Testing Update</t>
   </si>
   <si>
-    <t>zyBook chapaters 5.5 - 5.12, 5.14, 5.15, CSC Software Testing Materials (Testing: Loops)</t>
+    <t>zyBook chapters: 5.5 - 5.12, 5.14, 5.15, CSC Software Testing Materials (Testing: Loops)</t>
   </si>
   <si>
     <t>Array Basics</t>
   </si>
   <si>
-    <t>zyBook chapaters 6.1 - 6.5, 7.1, 7.6, Oracle - Java Tutorial: Arrays, Java Arrays API</t>
+    <t>zyBook chapters: 6.1 - 6.5, 7.1, 7.6, Oracle - Java Tutorial: Arrays, Java Arrays API</t>
   </si>
   <si>
     <t>Modifying Arrays</t>
   </si>
   <si>
-    <t>zyBook chapaters 6.6 - 6.8, 7.2 - 7.5, 7.7 - 7.11</t>
+    <t>zyBook chapters: 6.6 - 6.8, 7.2 - 7.5, 7.7 - 7.11</t>
   </si>
   <si>
     <t>Multi-dimensional Arrays &amp; Array of Objects</t>
   </si>
   <si>
-    <t>zyBook chapaters 6.9 - 6.14</t>
+    <t>zyBook chapters: 6.9 - 6.14</t>
   </si>
   <si>
     <t>Testing Arrays</t>
@@ -124,39 +124,42 @@
     <t>Input Files</t>
   </si>
   <si>
-    <t>zyBook chapaters 8.1, 8.3, Scanner API, FileInputStream API, FileNotFoundException API, Oracle - Java Tutorial: I/O Streams</t>
-  </si>
-  <si>
-    <t>zyBook chapaters 10.1, 10.2, FileNotFoundException API, Oracle - Java Tutorial: Exceptions, Scanner API, FileInputStream API, Oracle - Java Tutorial: I/O Streams</t>
+    <t>zyBook chapters: 8.1, 8.3, Scanner API, FileInputStream API, FileNotFoundException API, Oracle - Java Tutorial: I/O Streams</t>
+  </si>
+  <si>
+    <t>zyBook chapters: 10.1, 10.2, FileNotFoundException API, Oracle - Java Tutorial: Exceptions, Scanner API, FileInputStream API, Oracle - Java Tutorial: I/O Streams</t>
   </si>
   <si>
     <t>Output Files</t>
   </si>
   <si>
-    <t>zyBook chapaters 8.4, 8.5, 10.4, PrintWriter API, FileOutputStream API, CSC Software Testing Materials (Testing: Arrays)</t>
+    <t>zyBook chapters: 8.4, 8.5, 10.4, PrintWriter API, FileOutputStream API, CSC Software Testing Materials (Testing: File Input and Output)</t>
   </si>
   <si>
     <t>Objects: Basics</t>
   </si>
   <si>
-    <t>zyBook chapaters 9.1 - 9.4, 9.10, 9.13, Oracle - Java Tutorial: Controlling Access to Members of a Class, Oracle - Java Tutorial: Using the this Keyword, Oracle - Java Tutorial: Classes</t>
+    <t>zyBook chapters: 9.1 - 9.4, 9.10, 9.13, Oracle - Java Tutorial: Controlling Access to Members of a Class, Oracle - Java Tutorial: Using the this Keyword, Oracle - Java Tutorial: Classes</t>
   </si>
   <si>
     <t>Objects: Constructors and Other Methods</t>
   </si>
   <si>
-    <t>zyBook chapaters 9.5, 9.8, 9.15, Oracle - Java Tutorial: Object as a Superclass, Oracle - Java Tutorial: Providing Constructors for Your Classes, Oracle - Java Tutorial: Understanding Class Members, Object API</t>
+    <t>zyBook chapters: 9.5, 9.8, 9.15, Oracle - Java Tutorial: Object as a Superclass, Oracle - Java Tutorial: Providing Constructors for Your Classes, Oracle - Java Tutorial: Understanding Class Members, Object API</t>
   </si>
   <si>
     <t>Objects: Interacting Classes</t>
   </si>
   <si>
-    <t>zyBook chapaters 9.6, 9.9, 9.11, 9.12, 9.14</t>
+    <t>zyBook chapters: 9.6, 9.9, 9.11, 9.12, 9.14</t>
   </si>
   <si>
     <t>GUI</t>
   </si>
   <si>
+    <t>PW</t>
+  </si>
+  <si>
     <t>Project Workday</t>
   </si>
   <si>
@@ -193,7 +196,7 @@
     <t>Q&amp;A</t>
   </si>
   <si>
-    <t>FINAL EXAM, 3:30-6:00PM</t>
+    <t>FINAL EXAM</t>
   </si>
 </sst>
 </file>
@@ -224,10 +227,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -353,47 +356,50 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -432,10 +438,7 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -481,7 +484,7 @@
     <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -863,33 +866,33 @@
       <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6"/>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>44350.0</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="11">
         <v>4.0</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>44355.0</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12">
       <c r="A12" s="20"/>
@@ -978,47 +981,47 @@
       <c r="C17" s="13">
         <v>13.0</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20"/>
-      <c r="B18" s="35">
+      <c r="B18" s="36">
         <v>44370.0</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="16">
         <v>44371.0</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20">
       <c r="A20" s="11">
         <v>7.0</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="31">
         <v>44376.0</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21">
       <c r="A21" s="20"/>
@@ -1075,7 +1078,7 @@
       <c r="C24" s="13">
         <v>17.0</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -1125,16 +1128,18 @@
       <c r="D27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="16">
         <v>44392.0</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="D28" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="43"/>
     </row>
@@ -1146,13 +1151,13 @@
         <v>44397.0</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1161,10 +1166,10 @@
         <v>44398.0</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="44"/>
     </row>
@@ -1174,10 +1179,10 @@
         <v>44400.0</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E31" s="44"/>
     </row>
@@ -1189,20 +1194,20 @@
         <v>44404.0</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="49"/>
     </row>
     <row r="33">
-      <c r="B33" s="35">
+      <c r="B33" s="36">
         <v>44405.0</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37" t="s">
-        <v>58</v>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="50"/>
     </row>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="55"/>
     </row>
@@ -1226,7 +1231,7 @@
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="60"/>
     </row>
